--- a/Test_files/Data/Rec_Tables/bhkw.xlsx
+++ b/Test_files/Data/Rec_Tables/bhkw.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Synergie\Test_files\Data\Records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Synergie\Test_files\Data\Rec_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bhkw_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>__ct1ds__bhkw</t>
   </si>
 </sst>
 </file>
@@ -656,12 +659,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,25 +993,26 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1015,6 +1020,9 @@
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1201,26 +1209,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1228,6 +1237,9 @@
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1413,26 +1425,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1440,6 +1453,9 @@
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>

--- a/Test_files/Data/Rec_Tables/bhkw.xlsx
+++ b/Test_files/Data/Rec_Tables/bhkw.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Synergie\Test_files\Data\Rec_Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Github_Synergie\Synergie\Test_files\Data\Rec_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bhkw_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -152,10 +152,13 @@
     <t>Kennfeld</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>__ct1ds__bhkw</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -662,13 +665,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1005,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1023,8 +1026,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1040,7 +1043,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1060,7 +1063,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1080,7 +1083,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1212,7 +1215,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,16 +1227,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1242,8 +1245,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1259,11 +1262,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1279,7 +1282,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1299,7 +1302,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1429,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,16 +1445,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1461,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1477,11 +1480,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1497,7 +1500,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1517,7 +1520,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
